--- a/wall time scaling.xlsx
+++ b/wall time scaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/power_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9728CBA-A844-BB43-BC97-A2737987CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B45FD-D6C0-6E4A-8304-63D658A53DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="5000" windowWidth="32020" windowHeight="21040" xr2:uid="{EBB15D04-2259-574F-917F-1FA47EB1E065}"/>
+    <workbookView xWindow="6460" yWindow="2120" windowWidth="32220" windowHeight="25260" activeTab="1" xr2:uid="{EBB15D04-2259-574F-917F-1FA47EB1E065}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Pile-up</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>BX</t>
+  </si>
+  <si>
+    <t>Wall Time GPU</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -7936,8 +7942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798AF108-EC67-BF4B-8C89-67BCD6677BE9}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="F36" sqref="F3:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7976,7 +7982,7 @@
         <v>14711033274956.137</v>
       </c>
       <c r="F3">
-        <f>G3*B$21</f>
+        <f t="shared" ref="F3:F36" si="0">G3*B$21</f>
         <v>367775.8318739034</v>
       </c>
       <c r="G3">
@@ -8004,11 +8010,11 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E36" si="0">F4*B$24</f>
+        <f t="shared" ref="E4:E36" si="1">F4*B$24</f>
         <v>19381202568593.07</v>
       </c>
       <c r="F4">
-        <f>G4*B$21</f>
+        <f t="shared" si="0"/>
         <v>484530.06421482674</v>
       </c>
       <c r="G4">
@@ -8026,18 +8032,18 @@
         <v>154</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C6" si="1">B5/B$4</f>
+        <f t="shared" ref="C5:C6" si="2">B5/B$4</f>
         <v>2.9615384615384617</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>22300058377116.137</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>22300058377116.137</v>
-      </c>
-      <c r="F5">
-        <f>G5*B$21</f>
         <v>557501.45942790341</v>
       </c>
       <c r="G5">
@@ -8055,18 +8061,18 @@
         <v>283</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4423076923076925</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>25218914185639.207</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>25218914185639.207</v>
-      </c>
-      <c r="F6">
-        <f>G6*B$21</f>
         <v>630472.85464098013</v>
       </c>
       <c r="G6">
@@ -8091,11 +8097,11 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>28021015761821.336</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>28021015761821.336</v>
-      </c>
-      <c r="F7">
-        <f>G7*B$21</f>
         <v>700525.39404553338</v>
       </c>
       <c r="G7">
@@ -8113,18 +8119,18 @@
         <v>2.6</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C9" si="2">B8/B$7</f>
+        <f t="shared" ref="C8:C9" si="3">B8/B$7</f>
         <v>7.8549848942598191</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>31290134267367.07</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>31290134267367.07</v>
-      </c>
-      <c r="F8">
-        <f>G8*B$21</f>
         <v>782253.35668417672</v>
       </c>
       <c r="G8">
@@ -8142,18 +8148,18 @@
         <v>5.3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.012084592145015</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>33975481611208.402</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>33975481611208.402</v>
-      </c>
-      <c r="F9">
-        <f>G9*B$21</f>
         <v>849387.04028021009</v>
       </c>
       <c r="G9">
@@ -8165,11 +8171,11 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>37127845884413.203</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>37127845884413.203</v>
-      </c>
-      <c r="F10">
-        <f>G10*B$21</f>
         <v>928196.14711033006</v>
       </c>
       <c r="G10">
@@ -8181,11 +8187,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>39813193228254.398</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>39813193228254.398</v>
-      </c>
-      <c r="F11">
-        <f>G11*B$21</f>
         <v>995329.83070636005</v>
       </c>
       <c r="G11">
@@ -8197,11 +8203,11 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>43199065966141.195</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>43199065966141.195</v>
-      </c>
-      <c r="F12">
-        <f>G12*B$21</f>
         <v>1079976.6491535299</v>
       </c>
       <c r="G12">
@@ -8213,11 +8219,11 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>46001167542323.336</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>46001167542323.336</v>
-      </c>
-      <c r="F13">
-        <f>G13*B$21</f>
         <v>1150029.1885580835</v>
       </c>
       <c r="G13">
@@ -8229,11 +8235,11 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>48803269118505.469</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>48803269118505.469</v>
-      </c>
-      <c r="F14">
-        <f>G14*B$21</f>
         <v>1220081.7279626366</v>
       </c>
       <c r="G14">
@@ -8245,11 +8251,11 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>51722124927028.539</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>51722124927028.539</v>
-      </c>
-      <c r="F15">
-        <f>G15*B$21</f>
         <v>1293053.1231757135</v>
       </c>
       <c r="G15">
@@ -8261,11 +8267,11 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>54640980735551.602</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>54640980735551.602</v>
-      </c>
-      <c r="F16">
-        <f>G16*B$21</f>
         <v>1366024.5183887901</v>
       </c>
       <c r="G16">
@@ -8277,11 +8283,11 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>57910099241097.477</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>57910099241097.477</v>
-      </c>
-      <c r="F17">
-        <f>G17*B$21</f>
         <v>1447752.4810274369</v>
       </c>
       <c r="G17">
@@ -8293,11 +8299,11 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>60712200817279.602</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>60712200817279.602</v>
-      </c>
-      <c r="F18">
-        <f>G18*B$21</f>
         <v>1517805.02043199</v>
       </c>
       <c r="G18">
@@ -8309,11 +8315,11 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>65148861646234.672</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>65148861646234.672</v>
-      </c>
-      <c r="F19">
-        <f>G19*B$21</f>
         <v>1628721.5411558668</v>
       </c>
       <c r="G19">
@@ -8328,11 +8334,11 @@
         <v>12</v>
       </c>
       <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>70753064798598.938</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v>70753064798598.938</v>
-      </c>
-      <c r="F20">
-        <f>G20*B$21</f>
         <v>1768826.6199649735</v>
       </c>
       <c r="G20">
@@ -8348,11 +8354,11 @@
         <v>33333.333333333336</v>
       </c>
       <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>74605954465849.328</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v>74605954465849.328</v>
-      </c>
-      <c r="F21">
-        <f>G21*B$21</f>
         <v>1865148.8616462334</v>
       </c>
       <c r="G21">
@@ -8364,11 +8370,11 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>84413309982486.812</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>84413309982486.812</v>
-      </c>
-      <c r="F22">
-        <f>G22*B$21</f>
         <v>2110332.7495621704</v>
       </c>
       <c r="G22">
@@ -8383,11 +8389,11 @@
         <v>15</v>
       </c>
       <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>87565674255691.75</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
-        <v>87565674255691.75</v>
-      </c>
-      <c r="F23">
-        <f>G23*B$21</f>
         <v>2189141.8563922937</v>
       </c>
       <c r="G23">
@@ -8402,11 +8408,11 @@
         <v>40000000</v>
       </c>
       <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>92702860478692.281</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
-        <v>92702860478692.281</v>
-      </c>
-      <c r="F24">
-        <f>G24*B$21</f>
         <v>2317571.511967307</v>
       </c>
       <c r="G24">
@@ -8418,11 +8424,11 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>95037945125510.797</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
-        <v>95037945125510.797</v>
-      </c>
-      <c r="F25">
-        <f>G25*B$21</f>
         <v>2375948.6281377701</v>
       </c>
       <c r="G25">
@@ -8434,11 +8440,11 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>97840046701692.938</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
-        <v>97840046701692.938</v>
-      </c>
-      <c r="F26">
-        <f>G26*B$21</f>
         <v>2446001.1675423235</v>
       </c>
       <c r="G26">
@@ -8450,11 +8456,11 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>106596614127262.02</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
-        <v>106596614127262.02</v>
-      </c>
-      <c r="F27">
-        <f>G27*B$21</f>
         <v>2664915.3531815503</v>
       </c>
       <c r="G27">
@@ -8466,11 +8472,11 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>109748978400466.94</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
-        <v>109748978400466.94</v>
-      </c>
-      <c r="F28">
-        <f>G28*B$21</f>
         <v>2743724.4600116736</v>
       </c>
       <c r="G28">
@@ -8482,11 +8488,11 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>113134851138353.73</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
-        <v>113134851138353.73</v>
-      </c>
-      <c r="F29">
-        <f>G29*B$21</f>
         <v>2828371.2784588435</v>
       </c>
       <c r="G29">
@@ -8498,11 +8504,11 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>115586690017513.08</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
-        <v>115586690017513.08</v>
-      </c>
-      <c r="F30">
-        <f>G30*B$21</f>
         <v>2889667.2504378268</v>
       </c>
       <c r="G30">
@@ -8514,11 +8520,11 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>117221249270286.02</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="0"/>
-        <v>117221249270286.02</v>
-      </c>
-      <c r="F31">
-        <f>G31*B$21</f>
         <v>2930531.2317571505</v>
       </c>
       <c r="G31">
@@ -8530,11 +8536,11 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>120023350846468.14</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="0"/>
-        <v>120023350846468.14</v>
-      </c>
-      <c r="F32">
-        <f>G32*B$21</f>
         <v>3000583.7711617034</v>
       </c>
       <c r="G32">
@@ -8546,11 +8552,11 @@
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>121891418563922.94</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
-        <v>121891418563922.94</v>
-      </c>
-      <c r="F33">
-        <f>G33*B$21</f>
         <v>3047285.4640980735</v>
       </c>
       <c r="G33">
@@ -8562,11 +8568,11 @@
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>80000000000000.016</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
-        <v>80000000000000.016</v>
-      </c>
-      <c r="F34">
-        <f>G34*B$21</f>
         <v>2000000.0000000002</v>
       </c>
       <c r="G34">
@@ -8581,11 +8587,11 @@
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>186666666666666.69</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="0"/>
-        <v>186666666666666.69</v>
-      </c>
-      <c r="F35">
-        <f>G35*B$21</f>
         <v>4666666.666666667</v>
       </c>
       <c r="G35">
@@ -8597,11 +8603,11 @@
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>266666666666666.69</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="0"/>
-        <v>266666666666666.69</v>
-      </c>
-      <c r="F36">
-        <f>G36*B$21</f>
         <v>6666666.666666667</v>
       </c>
       <c r="G36">
@@ -8619,292 +8625,536 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5853392B-9606-B14E-9933-24665DA36140}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11.033274956217101</v>
       </c>
       <c r="B2">
+        <v>367775.8318739034</v>
+      </c>
+      <c r="C2">
         <v>0.23486307482737534</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>C2/2</f>
+        <v>0.11743153741368767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>14.535901926444801</v>
       </c>
       <c r="B3">
+        <v>484530.06421482674</v>
+      </c>
+      <c r="C3">
         <v>0.24587228145990864</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D35" si="0">C3/2</f>
+        <v>0.12293614072995432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>16.725043782837101</v>
       </c>
       <c r="B4">
+        <v>557501.45942790341</v>
+      </c>
+      <c r="C4">
         <v>0.26055122363661959</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.13027561181830979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>18.914185639229402</v>
       </c>
       <c r="B5">
+        <v>630472.85464098013</v>
+      </c>
+      <c r="C5">
         <v>0.28623937244586389</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.14311968622293195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21.015761821365999</v>
       </c>
       <c r="B6">
+        <v>700525.39404553338</v>
+      </c>
+      <c r="C6">
         <v>0.29357884353421954</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.14678942176710977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>23.467600700525299</v>
       </c>
       <c r="B7">
+        <v>782253.35668417672</v>
+      </c>
+      <c r="C7">
         <v>0.32293672788764149</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.16146836394382075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>25.481611208406299</v>
       </c>
       <c r="B8">
+        <v>849387.04028021009</v>
+      </c>
+      <c r="C8">
         <v>0.3412854056085301</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.17064270280426505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>27.8458844133099</v>
       </c>
       <c r="B9">
+        <v>928196.14711033006</v>
+      </c>
+      <c r="C9">
         <v>0.37431302550612822</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.18715651275306411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>29.859894921190801</v>
       </c>
       <c r="B10">
+        <v>995329.83070636005</v>
+      </c>
+      <c r="C10">
         <v>0.40000117431537252</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.20000058715768626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>32.399299474605897</v>
       </c>
       <c r="B11">
+        <v>1079976.6491535299</v>
+      </c>
+      <c r="C11">
         <v>0.43669852975714896</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.21834926487857448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>34.500875656742501</v>
       </c>
       <c r="B12">
+        <v>1150029.1885580835</v>
+      </c>
+      <c r="C12">
         <v>0.46605641411057303</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.23302820705528651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>36.602451838879098</v>
       </c>
       <c r="B13">
+        <v>1220081.7279626366</v>
+      </c>
+      <c r="C13">
         <v>0.50642350509652578</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.25321175254826289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>38.791593695271402</v>
       </c>
       <c r="B14">
+        <v>1293053.1231757135</v>
+      </c>
+      <c r="C14">
         <v>0.53945112499412606</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.26972556249706303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>40.980735551663699</v>
       </c>
       <c r="B15">
+        <v>1366024.5183887901</v>
+      </c>
+      <c r="C15">
         <v>0.58715768706843841</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.2935788435342192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>43.432574430823102</v>
       </c>
       <c r="B16">
+        <v>1447752.4810274369</v>
+      </c>
+      <c r="C16">
         <v>0.63486424914274708</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.31743212457137354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>45.534150612959699</v>
       </c>
       <c r="B17">
+        <v>1517805.02043199</v>
+      </c>
+      <c r="C17">
         <v>0.67523134012870345</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.33761567006435172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>48.861646234676002</v>
       </c>
       <c r="B18">
+        <v>1628721.5411558668</v>
+      </c>
+      <c r="C18">
         <v>0.73394710883554792</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.36697355441777396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>53.064798598949203</v>
       </c>
       <c r="B19">
+        <v>1768826.6199649735</v>
+      </c>
+      <c r="C19">
         <v>0.83302996852834521</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.41651498426417261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>55.954465849386999</v>
       </c>
       <c r="B20">
+        <v>1865148.8616462334</v>
+      </c>
+      <c r="C20">
         <v>0.92110362158861381</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.4605518107943069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>63.309982486865103</v>
       </c>
       <c r="B21">
+        <v>2110332.7495621704</v>
+      </c>
+      <c r="C21">
         <v>1.0825719855324318</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.54128599276621592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>65.674255691768806</v>
       </c>
       <c r="B22">
+        <v>2189141.8563922937</v>
+      </c>
+      <c r="C22">
         <v>1.2073429940344771</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.60367149701723855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>69.527145359019201</v>
       </c>
       <c r="B23">
+        <v>2317571.511967307</v>
+      </c>
+      <c r="C23">
         <v>1.3761508290666511</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.68807541453332555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>71.278458844133098</v>
       </c>
       <c r="B24">
+        <v>2375948.6281377701</v>
+      </c>
+      <c r="C24">
         <v>1.4899126309361639</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.74495631546808194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>73.380035026269695</v>
       </c>
       <c r="B25">
+        <v>2446001.1675423235</v>
+      </c>
+      <c r="C25">
         <v>1.6403717882474496</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.82018589412372478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>79.947460595446501</v>
       </c>
       <c r="B26">
+        <v>2664915.3531815503</v>
+      </c>
+      <c r="C26">
         <v>2.1137676734463788</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.0568838367231894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>82.311733800350197</v>
       </c>
       <c r="B27">
+        <v>2743724.4600116736</v>
+      </c>
+      <c r="C27">
         <v>2.3412912771854009</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.1706456385927004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>84.851138353765293</v>
       </c>
       <c r="B28">
+        <v>2828371.2784588435</v>
+      </c>
+      <c r="C28">
         <v>2.5284477899384634</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.2642238949692317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>86.690017513134805</v>
       </c>
       <c r="B29">
+        <v>2889667.2504378268</v>
+      </c>
+      <c r="C29">
         <v>2.6605582695288645</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.3302791347644323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>87.915936952714503</v>
       </c>
       <c r="B30">
+        <v>2930531.2317571505</v>
+      </c>
+      <c r="C30">
         <v>2.8697331955469947</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1.4348665977734973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>90.0175131348511</v>
       </c>
       <c r="B31">
+        <v>3000583.7711617034</v>
+      </c>
+      <c r="C31">
         <v>3.1192752125510816</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.5596376062755408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>91.418563922942198</v>
       </c>
       <c r="B32">
+        <v>3047285.4640980735</v>
+      </c>
+      <c r="C32">
         <v>3.3394593452017443</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1.6697296726008721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>60</v>
       </c>
       <c r="B33">
+        <v>2000000.0000000002</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>140</v>
       </c>
       <c r="B34">
+        <v>4666666.666666667</v>
+      </c>
+      <c r="C34">
         <v>6.6405070932689405</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3.3202535466344703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>200</v>
       </c>
       <c r="B35">
+        <v>6666666.666666667</v>
+      </c>
+      <c r="C35">
         <v>15.964080893450044</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>7.9820404467250219</v>
       </c>
     </row>
   </sheetData>

--- a/wall time scaling.xlsx
+++ b/wall time scaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B45FD-D6C0-6E4A-8304-63D658A53DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E8FA7-7058-6543-B159-4D3287F157AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2120" windowWidth="32220" windowHeight="25260" activeTab="1" xr2:uid="{EBB15D04-2259-574F-917F-1FA47EB1E065}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="1" xr2:uid="{EBB15D04-2259-574F-917F-1FA47EB1E065}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
